--- a/data/trans_dic/P25D_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01668118150529928</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.006710021389229559</v>
+        <v>0.006710021389229557</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01199443524895357</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005717384276101881</v>
+        <v>0.00607617097511204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002622992391501793</v>
+        <v>0.002119516485923434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005952463274763529</v>
+        <v>0.005956534092898229</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03722541125357398</v>
+        <v>0.03970965485933726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01510032960115539</v>
+        <v>0.0153063583875758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02381331096899453</v>
+        <v>0.02397014067420533</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006099642258980554</v>
+        <v>0.005714528508563957</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004396006036694809</v>
+        <v>0.004802866671289531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006839959835867183</v>
+        <v>0.007434858392005752</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03327845929531362</v>
+        <v>0.03525071351350188</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0252152780585299</v>
+        <v>0.02514921980628968</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0234940329586337</v>
+        <v>0.02464404219582055</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.009006100028434234</v>
+        <v>0.00900610002843423</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02105510862822127</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002402946792410584</v>
+        <v>0.002351924335416497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007341458479720669</v>
+        <v>0.007920552341156033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00576612053787895</v>
+        <v>0.006064385928231387</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02315219425329258</v>
+        <v>0.02201558575089677</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05617607999269111</v>
+        <v>0.05576320273685246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02333811968091872</v>
+        <v>0.02551663153520968</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.01122004955388946</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.007651925602437118</v>
+        <v>0.007651925602437119</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.009678646283144981</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005154663192451381</v>
+        <v>0.005410135139981963</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003724270412040019</v>
+        <v>0.003192147978470016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005434673324267387</v>
+        <v>0.005366412401145289</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02267524027627589</v>
+        <v>0.02527170503913899</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01496191087174394</v>
+        <v>0.01556545141611307</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01618356953321585</v>
+        <v>0.01623272707252171</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001731270932953879</v>
+        <v>0.001883731477761363</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0009405101340721699</v>
+        <v>0.0009580891323993732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002035027248739314</v>
+        <v>0.001891448335139105</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02240950696352004</v>
+        <v>0.01975292568678685</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.007663974252711995</v>
+        <v>0.008472648017303051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01059710057822141</v>
+        <v>0.01034634874210174</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.007810608397382377</v>
+        <v>0.00781060839738238</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.00585384686030783</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.000954514380515639</v>
+        <v>0.0009391992202804591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001712889695945687</v>
+        <v>0.0017264858097171</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03543959547313742</v>
+        <v>0.03999049948246257</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01952203443452902</v>
+        <v>0.01975989935386172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01514007846111277</v>
+        <v>0.01566752478371185</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.01159938376973698</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.007150498448154285</v>
+        <v>0.007150498448154287</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.009313398009908061</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007945300095722337</v>
+        <v>0.007714049106676172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004728395327890993</v>
+        <v>0.004786904321819257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006839547133338337</v>
+        <v>0.007059238923536339</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01686720079423485</v>
+        <v>0.0172439049490173</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01028275804049682</v>
+        <v>0.01043821435522443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01229769780082407</v>
+        <v>0.01248891072528265</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3143</v>
+        <v>3340</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1279</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6174</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20462</v>
+        <v>21828</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7362</v>
+        <v>7462</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24699</v>
+        <v>24862</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2934</v>
+        <v>2749</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1857</v>
+        <v>2029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6180</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16007</v>
+        <v>16956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10652</v>
+        <v>10624</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21226</v>
+        <v>22265</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1372</v>
+        <v>1480</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3797</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10919</v>
+        <v>10383</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10495</v>
+        <v>10418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15367</v>
+        <v>16801</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5818</v>
+        <v>6106</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3197</v>
+        <v>2740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10799</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25592</v>
+        <v>28523</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12843</v>
+        <v>13361</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32157</v>
+        <v>32255</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>980</v>
+        <v>1066</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2839</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12679</v>
+        <v>11176</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6357</v>
+        <v>7028</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14786</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1849</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8368</v>
+        <v>9443</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16469</v>
+        <v>16669</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16347</v>
+        <v>16917</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>27275</v>
+        <v>26481</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17156</v>
+        <v>17368</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>48294</v>
+        <v>49846</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57903</v>
+        <v>59196</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>37308</v>
+        <v>37872</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>86835</v>
+        <v>88185</v>
       </c>
     </row>
     <row r="32">
